--- a/syamsulhilal.xlsx
+++ b/syamsulhilal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usER\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F022304B-DFED-4FDE-9EFD-C3791A622D67}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB44F5DA-5C45-45A1-8B31-4BCEDCB03A39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{07D42059-7660-4384-8A12-CFF2DA214487}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>HARI</t>
   </si>
   <si>
-    <t>TAHUN H</t>
-  </si>
-  <si>
     <t>Dr</t>
   </si>
   <si>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>Derajat</t>
+  </si>
+  <si>
+    <t>TAHUN</t>
   </si>
 </sst>
 </file>
@@ -779,9 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AC1465-83FB-4041-86EE-B367413FD316}">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -791,7 +789,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
@@ -3656,40 +3654,40 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -4939,7 +4937,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7">
         <v>0</v>
@@ -4981,40 +4979,40 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -5890,7 +5888,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>3</v>
@@ -5905,28 +5903,28 @@
         <v>6</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -5934,40 +5932,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="F2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -5975,40 +5973,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="G3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="L3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -6016,40 +6014,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>46</v>
-      </c>
       <c r="H4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="K4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="13" t="s">
+      <c r="M4" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -6057,40 +6055,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="H5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="K5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="13" t="s">
+      <c r="M5" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -6098,40 +6096,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="H6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="13" t="s">
+      <c r="M6" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -6139,40 +6137,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>59</v>
-      </c>
       <c r="H7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="J7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="K7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -6180,40 +6178,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="H8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="J8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="K8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="L8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="M8" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -6221,40 +6219,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="G9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="L9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -6262,40 +6260,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="H10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="J10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="13" t="s">
+      <c r="M10" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -6303,40 +6301,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>78</v>
-      </c>
       <c r="H11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="J11" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="K11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="13" t="s">
+      <c r="M11" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -6344,40 +6342,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="G12" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="H12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="J12" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="K12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" s="13" t="s">
+      <c r="M12" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -6385,40 +6383,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="F13" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="G13" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>88</v>
-      </c>
       <c r="H13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="J13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="J13" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" s="13" t="s">
+      <c r="L13" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="M13" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -6426,40 +6424,40 @@
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="E14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="13" t="s">
+      <c r="G14" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>93</v>
-      </c>
       <c r="H14" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="J14" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="K14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="13" t="s">
+      <c r="M14" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -6467,40 +6465,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="13" t="s">
+      <c r="G15" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="H15" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="J15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L15" s="13" t="s">
+      <c r="M15" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -6508,40 +6506,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="H16" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -6549,40 +6547,40 @@
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>103</v>
-      </c>
       <c r="D17" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="J17" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>103</v>
-      </c>
       <c r="M17" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -6590,40 +6588,40 @@
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="13" t="s">
+      <c r="I18" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="K18" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>99</v>
-      </c>
       <c r="M18" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -6631,40 +6629,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="I19" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="J19" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="M19" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -6672,40 +6670,40 @@
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="I20" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="J20" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="L20" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>90</v>
-      </c>
       <c r="M20" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -6713,40 +6711,40 @@
         <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="I21" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="J21" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="K21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>85</v>
-      </c>
       <c r="M21" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -6754,40 +6752,40 @@
         <v>20</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="I22" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="J22" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="L22" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>80</v>
-      </c>
       <c r="M22" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -6795,40 +6793,40 @@
         <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="I23" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="J23" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="L23" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>75</v>
-      </c>
       <c r="M23" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -6836,40 +6834,40 @@
         <v>22</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="I24" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="J24" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>71</v>
-      </c>
       <c r="M24" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -6877,40 +6875,40 @@
         <v>23</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="13" t="s">
+      <c r="I25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="13" t="s">
+      <c r="K25" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L25" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="M25" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -6918,40 +6916,40 @@
         <v>24</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="I26" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="J26" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="K26" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="L26" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>61</v>
-      </c>
       <c r="M26" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -6959,40 +6957,40 @@
         <v>25</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="I27" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="L27" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="M27" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -7000,40 +6998,40 @@
         <v>26</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="13" t="s">
+      <c r="I28" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="J28" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>53</v>
-      </c>
       <c r="M28" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -7041,40 +7039,40 @@
         <v>27</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="13" t="s">
+      <c r="I29" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="J29" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="L29" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>48</v>
-      </c>
       <c r="M29" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -7082,40 +7080,40 @@
         <v>28</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="13" t="s">
+      <c r="I30" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="J30" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="L30" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>43</v>
-      </c>
       <c r="M30" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -7123,40 +7121,40 @@
         <v>29</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="I31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -7164,40 +7162,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="E32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="K32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="L32" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="M32" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -7262,43 +7260,43 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
